--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/95.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/95.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1853249286337708</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.320605242002358</v>
+        <v>-1.319156874296176</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1646442870833955</v>
+        <v>-0.1668182986907585</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1275371648529509</v>
+        <v>-0.1287884260668596</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1807235800521364</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388310592073976</v>
+        <v>-1.388148526735885</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.232104349075741</v>
+        <v>-0.2346900942447403</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1325714106704041</v>
+        <v>-0.1333072749082221</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1731740708682427</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491258582963948</v>
+        <v>-1.491772519891948</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2794580888081828</v>
+        <v>-0.2812043063249096</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1372406444651301</v>
+        <v>-0.138058271396039</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.161978054531041</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.64174865979009</v>
+        <v>-1.643921211349362</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.290713599540998</v>
+        <v>-0.2919181392159976</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1479340366829454</v>
+        <v>-0.1484581939475816</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.145773316000896</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.736190410502428</v>
+        <v>-1.7385717489387</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2894156167881801</v>
+        <v>-0.2908829651195434</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1669467829227585</v>
+        <v>-0.1664167854657586</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1263113126667104</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.576421728058562</v>
+        <v>-1.578938850967288</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2225308137436527</v>
+        <v>-0.2237046924087432</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.175013548625029</v>
+        <v>-0.1734717378410295</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1076780443590758</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.419451957804968</v>
+        <v>-1.420755780750149</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1451132237713098</v>
+        <v>-0.1470434073474911</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1535085002940348</v>
+        <v>-0.1529376214904895</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09266111030769299</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.15000446277204</v>
+        <v>-1.151203162254676</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003161508180802464</v>
+        <v>-0.005369100894256416</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1315771179204953</v>
+        <v>-0.1304514208424047</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.07948242473364364</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7804984120210483</v>
+        <v>-0.7804765112996846</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0822469249930837</v>
+        <v>0.08088616017235678</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1188790796738623</v>
+        <v>-0.1174730533623172</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06218851256344089</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4074809456114212</v>
+        <v>-0.4057274278542398</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1270061592679808</v>
+        <v>0.1242452083280724</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07405268318678343</v>
+        <v>-0.07340296178632906</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03430642387964513</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06084700012463489</v>
+        <v>0.06320643783954336</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1392807835682502</v>
+        <v>0.1375331060034325</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02731407562073481</v>
+        <v>0.02767324745109835</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01144169753733531</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6012049583775807</v>
+        <v>0.6036286382084891</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05886571486527179</v>
+        <v>0.05729762321563585</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1772055327296037</v>
+        <v>0.1786509803396032</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.07884391639226279</v>
       </c>
       <c r="E14" t="n">
-        <v>1.16457765468752</v>
+        <v>1.167642295630338</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08981828247241556</v>
+        <v>-0.0900095487723246</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3061642803591145</v>
+        <v>0.3074403623905687</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1663802348319552</v>
       </c>
       <c r="E15" t="n">
-        <v>1.813433246623982</v>
+        <v>1.815507974961164</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2606278485797333</v>
+        <v>-0.2588436698126429</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4883695218159746</v>
+        <v>0.4890703448996108</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2635345783378325</v>
       </c>
       <c r="E16" t="n">
-        <v>2.43928870098436</v>
+        <v>2.442870198951359</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4979834865744878</v>
+        <v>-0.4957277122740338</v>
       </c>
       <c r="G16" t="n">
-        <v>0.605582182554125</v>
+        <v>0.6066290370353066</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3581049543203277</v>
       </c>
       <c r="E17" t="n">
-        <v>3.050026817411469</v>
+        <v>3.053958726920286</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6317866737696337</v>
+        <v>-0.6299689138964524</v>
       </c>
       <c r="G17" t="n">
-        <v>0.792523820017893</v>
+        <v>0.7932027423801655</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.450300769281139</v>
       </c>
       <c r="E18" t="n">
-        <v>3.647374832796854</v>
+        <v>3.653761083146488</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7547636043706916</v>
+        <v>-0.7528115200731467</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9358903222084909</v>
+        <v>0.935520930041491</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5438356297271879</v>
       </c>
       <c r="E19" t="n">
-        <v>4.181545107240528</v>
+        <v>4.18775031162689</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9134606115158308</v>
+        <v>-0.9110471520215587</v>
       </c>
       <c r="G19" t="n">
-        <v>1.088041933762086</v>
+        <v>1.087909069385814</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6372246038815664</v>
       </c>
       <c r="E20" t="n">
-        <v>4.724950185859201</v>
+        <v>4.73089404163729</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.127575203999501</v>
+        <v>-1.125931189849137</v>
       </c>
       <c r="G20" t="n">
-        <v>1.247360921393953</v>
+        <v>1.247025110333044</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7232693182812429</v>
       </c>
       <c r="E21" t="n">
-        <v>5.182983332506259</v>
+        <v>5.190242691614258</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.284188722518913</v>
+        <v>-1.282362202357186</v>
       </c>
       <c r="G21" t="n">
-        <v>1.423079169182905</v>
+        <v>1.423063108653905</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.794064732594302</v>
       </c>
       <c r="E22" t="n">
-        <v>5.587444394601697</v>
+        <v>5.594202957214513</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.491029355413676</v>
+        <v>-1.489499225014403</v>
       </c>
       <c r="G22" t="n">
-        <v>1.53951070419242</v>
+        <v>1.538767539714147</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8450359018320971</v>
       </c>
       <c r="E23" t="n">
-        <v>5.858007366376079</v>
+        <v>5.865763141834985</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.669712960875264</v>
+        <v>-1.669124561494628</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699892606834468</v>
+        <v>1.699583076639195</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8743019286807506</v>
       </c>
       <c r="E24" t="n">
-        <v>6.163320942762178</v>
+        <v>6.170532120283176</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.842643976858672</v>
+        <v>-1.841985495169672</v>
       </c>
       <c r="G24" t="n">
-        <v>1.814862633704982</v>
+        <v>1.813628893068164</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8837227478536551</v>
       </c>
       <c r="E25" t="n">
-        <v>6.376273336965484</v>
+        <v>6.382836253134119</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.977515189232318</v>
+        <v>-1.977293991946545</v>
       </c>
       <c r="G25" t="n">
-        <v>1.918139135415409</v>
+        <v>1.916533082515409</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8766377112147393</v>
       </c>
       <c r="E26" t="n">
-        <v>6.476841449467276</v>
+        <v>6.482775084908728</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.085045541055607</v>
+        <v>-2.084201633259062</v>
       </c>
       <c r="G26" t="n">
-        <v>1.981521283089846</v>
+        <v>1.980363464953756</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8573103521360222</v>
       </c>
       <c r="E27" t="n">
-        <v>6.530031001419079</v>
+        <v>6.536192404362715</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.174026711907947</v>
+        <v>-2.172536732831174</v>
       </c>
       <c r="G27" t="n">
-        <v>2.063978959072006</v>
+        <v>2.062607973914643</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8303672002390186</v>
       </c>
       <c r="E28" t="n">
-        <v>6.640669065603868</v>
+        <v>6.646868429797866</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.234535484939476</v>
+        <v>-2.232150496382977</v>
       </c>
       <c r="G28" t="n">
-        <v>2.093496751325907</v>
+        <v>2.092433836315726</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7991550937999723</v>
       </c>
       <c r="E29" t="n">
-        <v>6.57757454740334</v>
+        <v>6.583879035059883</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.294787289507005</v>
+        <v>-2.292536625374869</v>
       </c>
       <c r="G29" t="n">
-        <v>2.140174488792258</v>
+        <v>2.138610777286895</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7663562516782577</v>
       </c>
       <c r="E30" t="n">
-        <v>6.541997555572167</v>
+        <v>6.549951897571438</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.330559197758314</v>
+        <v>-2.327908480449269</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12497684821399</v>
+        <v>2.123103606513354</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7334631976072218</v>
       </c>
       <c r="E31" t="n">
-        <v>6.453214951260192</v>
+        <v>6.461045189171735</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.312848084391546</v>
+        <v>-2.309805344170092</v>
       </c>
       <c r="G31" t="n">
-        <v>2.10902144267654</v>
+        <v>2.105920300531449</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7007906143571586</v>
       </c>
       <c r="E32" t="n">
-        <v>6.279159698246783</v>
+        <v>6.286105147015236</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.31858242326859</v>
+        <v>-2.315394408262091</v>
       </c>
       <c r="G32" t="n">
-        <v>2.045366266009102</v>
+        <v>2.043038949352193</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6678464887761117</v>
       </c>
       <c r="E33" t="n">
-        <v>6.093164171945924</v>
+        <v>6.101981402366921</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.342568823330083</v>
+        <v>-2.338547120863675</v>
       </c>
       <c r="G33" t="n">
-        <v>1.978807053688847</v>
+        <v>1.977148439057575</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6335628322426274</v>
       </c>
       <c r="E34" t="n">
-        <v>5.855120851300351</v>
+        <v>5.863095633972895</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.383435569394618</v>
+        <v>-2.381426543221528</v>
       </c>
       <c r="G34" t="n">
-        <v>1.896254474580778</v>
+        <v>1.89383079474987</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5969038108424668</v>
       </c>
       <c r="E35" t="n">
-        <v>5.629960995008958</v>
+        <v>5.638118283692864</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.371310600023667</v>
+        <v>-2.369140968560576</v>
       </c>
       <c r="G35" t="n">
-        <v>1.827528550893615</v>
+        <v>1.825278616785525</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5579484504886311</v>
       </c>
       <c r="E36" t="n">
-        <v>5.440252566412918</v>
+        <v>5.448458036683824</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.330740973745632</v>
+        <v>-2.329735000610996</v>
       </c>
       <c r="G36" t="n">
-        <v>1.740333018856457</v>
+        <v>1.737688871763821</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5166665238865672</v>
       </c>
       <c r="E37" t="n">
-        <v>5.079000167519833</v>
+        <v>5.086453713023921</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.271168091540375</v>
+        <v>-2.269857698378785</v>
       </c>
       <c r="G37" t="n">
-        <v>1.651938787336662</v>
+        <v>1.650380916023663</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4746658343978235</v>
       </c>
       <c r="E38" t="n">
-        <v>4.802556122035271</v>
+        <v>4.811331011061632</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.16481745857454</v>
+        <v>-2.164498438066677</v>
       </c>
       <c r="G38" t="n">
-        <v>1.55056618833678</v>
+        <v>1.550274178718599</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.431805122249172</v>
       </c>
       <c r="E39" t="n">
-        <v>4.508663041816258</v>
+        <v>4.517731400508893</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.14671797241559</v>
+        <v>-2.146668330780499</v>
       </c>
       <c r="G39" t="n">
-        <v>1.437895737209447</v>
+        <v>1.438192126971901</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3872262438034157</v>
       </c>
       <c r="E40" t="n">
-        <v>4.24059529222924</v>
+        <v>4.249392081976965</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.117884942716326</v>
+        <v>-2.117764488748826</v>
       </c>
       <c r="G40" t="n">
-        <v>1.383875417893916</v>
+        <v>1.38288550528828</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3405537809173424</v>
       </c>
       <c r="E41" t="n">
-        <v>3.947582621009046</v>
+        <v>3.955345696708407</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.028096365269713</v>
+        <v>-2.028010952456395</v>
       </c>
       <c r="G41" t="n">
-        <v>1.263294426210039</v>
+        <v>1.262590683030221</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2908134331582735</v>
       </c>
       <c r="E42" t="n">
-        <v>3.693896345117477</v>
+        <v>3.700979038406476</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.93347721871433</v>
+        <v>-1.933343624314011</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158178263905068</v>
+        <v>1.157689147794613</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.238111591689362</v>
       </c>
       <c r="E43" t="n">
-        <v>3.422225196842096</v>
+        <v>3.430030613936094</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865603233088212</v>
+        <v>-1.865737557512575</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064827169116638</v>
+        <v>1.064631522672456</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1822625815555041</v>
       </c>
       <c r="E44" t="n">
-        <v>3.153628909846168</v>
+        <v>3.161501489152348</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825732969845722</v>
+        <v>-1.825581854868313</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9303611200882196</v>
+        <v>0.9305684469171286</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1248889152951516</v>
       </c>
       <c r="E45" t="n">
-        <v>2.895793177280237</v>
+        <v>2.903778180289417</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.743633735669881</v>
+        <v>-1.74281318864279</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8108050821641608</v>
+        <v>0.8103480871117064</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.06834802205119916</v>
       </c>
       <c r="E46" t="n">
-        <v>2.64831064572694</v>
+        <v>2.655264854783938</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.696005506896348</v>
+        <v>-1.694758625826712</v>
       </c>
       <c r="G46" t="n">
-        <v>0.769176190996172</v>
+        <v>0.7692375130159901</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.01430884055057914</v>
       </c>
       <c r="E47" t="n">
-        <v>2.348050295783475</v>
+        <v>2.355089187629746</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.648999258609542</v>
+        <v>-1.647764057924634</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6630277746909278</v>
+        <v>0.662592680359837</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.03475395254131996</v>
       </c>
       <c r="E48" t="n">
-        <v>2.15743371727489</v>
+        <v>2.16376448579707</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.614985978283733</v>
+        <v>-1.613765378079734</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6005625372175809</v>
+        <v>0.600369810869581</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.07786326746354182</v>
       </c>
       <c r="E49" t="n">
-        <v>1.959823508410852</v>
+        <v>1.966227279337578</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.566848192726473</v>
+        <v>-1.565288861365383</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5398376770685972</v>
+        <v>0.5394215633626882</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1144150883218328</v>
       </c>
       <c r="E50" t="n">
-        <v>1.848995637974246</v>
+        <v>1.854323353457972</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.494181599241948</v>
+        <v>-1.492330258262675</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4785229574908864</v>
+        <v>0.4781024636407047</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1453610957457925</v>
       </c>
       <c r="E51" t="n">
-        <v>1.672198414646111</v>
+        <v>1.677730536862564</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.437806222355781</v>
+        <v>-1.4352978597356</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4197195206295385</v>
+        <v>0.4198830460157203</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1722195390601739</v>
       </c>
       <c r="E52" t="n">
-        <v>1.553886337695507</v>
+        <v>1.559368818276869</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.39850318779661</v>
+        <v>-1.395613752624701</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3392694107723783</v>
+        <v>0.3391029652900147</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1960221940871059</v>
       </c>
       <c r="E53" t="n">
-        <v>1.378731668469645</v>
+        <v>1.382879665095916</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.360187145746893</v>
+        <v>-1.357871509474711</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2719173923387601</v>
+        <v>0.27219042133176</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2177201598786326</v>
       </c>
       <c r="E54" t="n">
-        <v>1.324923056127296</v>
+        <v>1.330094546465294</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.341199220324625</v>
+        <v>-1.339115731698898</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2216143554626826</v>
+        <v>0.220808408916501</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2375453777102705</v>
       </c>
       <c r="E55" t="n">
-        <v>1.204000413190146</v>
+        <v>1.20784763990969</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.304249783287998</v>
+        <v>-1.302767834475726</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1629802841798802</v>
+        <v>0.1639030345733345</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2557845599789341</v>
       </c>
       <c r="E56" t="n">
-        <v>1.173354003761973</v>
+        <v>1.177735608082789</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.252577221302649</v>
+        <v>-1.250244064453377</v>
       </c>
       <c r="G56" t="n">
-        <v>0.101751707439533</v>
+        <v>0.1033314794738962</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2722720774922246</v>
       </c>
       <c r="E57" t="n">
-        <v>1.082007555002361</v>
+        <v>1.086768771826814</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.24308398861556</v>
+        <v>-1.241529037398743</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05836053822581738</v>
+        <v>0.05992424973118059</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2866192587573926</v>
       </c>
       <c r="E58" t="n">
-        <v>1.027486439191648</v>
+        <v>1.032789333857828</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.205471689745661</v>
+        <v>-1.204053983049389</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01929503958534359</v>
+        <v>-0.01724075192143505</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2994293278872651</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9190983091149499</v>
+        <v>0.9241471554133122</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.121977379618956</v>
+        <v>-1.120229702054139</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09599136580077754</v>
+        <v>-0.09384363505905084</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3107239112581662</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8922421845307753</v>
+        <v>0.8992095340205916</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102742706069325</v>
+        <v>-1.10112643283269</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1231511803878612</v>
+        <v>-0.120914386712589</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3209971798086771</v>
       </c>
       <c r="E61" t="n">
-        <v>0.760093231822629</v>
+        <v>0.7666021262118999</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.07384397420597</v>
+        <v>-1.071523957789515</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1524762462937624</v>
+        <v>-0.1498817408362176</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.330704287676885</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7210077444290031</v>
+        <v>0.7270523435253651</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.068434496029153</v>
+        <v>-1.066202082498153</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2266773503218334</v>
+        <v>-0.2248011885250157</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3403541793523587</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6294130874939368</v>
+        <v>0.6358679601038442</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.103100417851598</v>
+        <v>-1.100992108408326</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2423714072510109</v>
+        <v>-0.240131693479557</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3500576274132289</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5373395347850524</v>
+        <v>0.5453113973614139</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.08989574291742</v>
+        <v>-1.08732459822933</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2939490661104516</v>
+        <v>-0.2910070692072707</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3595677825099003</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4517354551669845</v>
+        <v>0.4600810900546186</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.057130803709338</v>
+        <v>-1.054842908350884</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3275345523456245</v>
+        <v>-0.3237982892809891</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3689251550043856</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4036604516776338</v>
+        <v>0.4115490915128134</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.072694916358424</v>
+        <v>-1.070573466482334</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3560259307916168</v>
+        <v>-0.352393331141436</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3779299818825893</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3737163253811873</v>
+        <v>0.3826211586876394</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.09188870856151</v>
+        <v>-1.089152578439147</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3909240002605165</v>
+        <v>-0.3862576865619723</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3860490447650491</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2940458812045723</v>
+        <v>0.3032748451872062</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.106293543026415</v>
+        <v>-1.10422903502587</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4001544242912413</v>
+        <v>-0.3963509990144242</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3920338497341065</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1887428327439642</v>
+        <v>0.1985631162034161</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.146907700771223</v>
+        <v>-1.145469553401677</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4245854089964166</v>
+        <v>-0.4199059548650542</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3942028750774568</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1257957794006175</v>
+        <v>0.1351663680480695</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.195187110993301</v>
+        <v>-1.193575217900937</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4406970396795941</v>
+        <v>-0.4365957645922315</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3908840825711908</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07652791662099431</v>
+        <v>0.08494363381699206</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279701994735551</v>
+        <v>-1.279423125550187</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5005487910702143</v>
+        <v>-0.4969687531513062</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3814018827174405</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.0111903126327094</v>
+        <v>-0.002041651295075492</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.315686339984086</v>
+        <v>-1.315554935655905</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4943990685113069</v>
+        <v>-0.4908745124198533</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3652494781967172</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02433366554706951</v>
+        <v>-0.01546533344289007</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306213547970271</v>
+        <v>-1.305744872533089</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5442567907196572</v>
+        <v>-0.5408388181388399</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3432847522965641</v>
       </c>
       <c r="E74" t="n">
-        <v>0.005950651954558726</v>
+        <v>0.01470948045192001</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346408671912987</v>
+        <v>-1.345938536427715</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.528205022008207</v>
+        <v>-0.5257317005422076</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3170105023468431</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01123894613983003</v>
+        <v>0.02001967535855495</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396117469216065</v>
+        <v>-1.396051767051974</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4795591397153109</v>
+        <v>-0.4766740846876753</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2878014856707102</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06380797765299774</v>
+        <v>0.07188204359572284</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342695769617806</v>
+        <v>-1.342314697066079</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4901371881339444</v>
+        <v>-0.4871616101246725</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2565357058762882</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1768901623419674</v>
+        <v>0.1851569546326924</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.34091889109117</v>
+        <v>-1.340550958972262</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4354554670332318</v>
+        <v>-0.432766058449778</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.223748629772329</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2632111255726715</v>
+        <v>0.2701244532831242</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306994673698907</v>
+        <v>-1.306636961916634</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4359387429513226</v>
+        <v>-0.4340304600965049</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1902714603638447</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3564220557443737</v>
+        <v>0.3625527976780993</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.324707977137811</v>
+        <v>-1.322206914758085</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4040001909626948</v>
+        <v>-0.4021371695986953</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1564778351558875</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4609790196305275</v>
+        <v>0.465512468952799</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.33903834915008</v>
+        <v>-1.337787087936171</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3452507758807106</v>
+        <v>-0.3439338125027109</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1228868691142726</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5612171612637733</v>
+        <v>0.564676015191136</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286854770332912</v>
+        <v>-1.285939320179913</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2933081049985428</v>
+        <v>-0.2924130955188157</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.09076273617072626</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6987653718121</v>
+        <v>0.7009043422652812</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.222875462989293</v>
+        <v>-1.221111724895475</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2602686767493698</v>
+        <v>-0.2591751007292792</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.06072998002896712</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8553336288406943</v>
+        <v>0.856602410631694</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.165900006337763</v>
+        <v>-1.164955355222945</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2168015850349269</v>
+        <v>-0.2158554738720181</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.03375126299286423</v>
       </c>
       <c r="E84" t="n">
-        <v>1.025741681723012</v>
+        <v>1.025997190138921</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.075568291001333</v>
+        <v>-1.074049840986788</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1650107591542135</v>
+        <v>-0.1656239793523952</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.01014108692087983</v>
       </c>
       <c r="E85" t="n">
-        <v>1.122189538512259</v>
+        <v>1.120722190180896</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.005646587927715</v>
+        <v>-1.003418554540988</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1305959656034046</v>
+        <v>-0.1312398468114953</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.009538846299306845</v>
       </c>
       <c r="E86" t="n">
-        <v>1.28895623145585</v>
+        <v>1.286199660660215</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9292977531579174</v>
+        <v>-0.9270259183284635</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04537441858515476</v>
+        <v>-0.04629132878624543</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02540098960434866</v>
       </c>
       <c r="E87" t="n">
-        <v>1.38605088954937</v>
+        <v>1.383941120058007</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8289909892643988</v>
+        <v>-0.8267425152043995</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01643772547143526</v>
+        <v>-0.01720425071916233</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03739133625535609</v>
       </c>
       <c r="E88" t="n">
-        <v>1.47347418908871</v>
+        <v>1.471228635124892</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7003928735133426</v>
+        <v>-0.6989430457590702</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03494866708809639</v>
+        <v>0.03412081982055116</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04489881741930177</v>
       </c>
       <c r="E89" t="n">
-        <v>1.571123665456775</v>
+        <v>1.568797808847957</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.569286395142105</v>
+        <v>-0.5670131002645602</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07997947030790248</v>
+        <v>0.07952977549590261</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0469347287195453</v>
       </c>
       <c r="E90" t="n">
-        <v>1.632676372873304</v>
+        <v>1.629343083081759</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4400998800104124</v>
+        <v>-0.4384587859562311</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09370246231435335</v>
+        <v>0.0927899322575354</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04221890761198769</v>
       </c>
       <c r="E91" t="n">
-        <v>1.677781638545746</v>
+        <v>1.673518298120293</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2812276670943641</v>
+        <v>-0.2787777063978193</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1084095267340767</v>
+        <v>0.1071144640774407</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.02976844657644325</v>
       </c>
       <c r="E92" t="n">
-        <v>1.70767320311092</v>
+        <v>1.703377741627466</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1206150768539527</v>
+        <v>-0.1193200141973167</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1036979515447143</v>
+        <v>0.1035329661104416</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.01070659242322881</v>
       </c>
       <c r="E93" t="n">
-        <v>1.703652230668557</v>
+        <v>1.69959183692774</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03861338779627723</v>
+        <v>0.03909228357009528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0995528750146245</v>
+        <v>0.09928714626207912</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01256921470953246</v>
       </c>
       <c r="E94" t="n">
-        <v>1.652549087438662</v>
+        <v>1.648117841482754</v>
       </c>
       <c r="F94" t="n">
-        <v>0.149902633429611</v>
+        <v>0.1493930766458838</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06066887425754403</v>
+        <v>0.06026590098445323</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03691933420481405</v>
       </c>
       <c r="E95" t="n">
-        <v>1.563455492883322</v>
+        <v>1.558094196293506</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2351840424195881</v>
+        <v>0.2342437714490429</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01166820027855719</v>
+        <v>0.01154117609464813</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05922974031934388</v>
       </c>
       <c r="E96" t="n">
-        <v>1.439920823911537</v>
+        <v>1.434958120450539</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3147493631336576</v>
+        <v>0.3136674674982943</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02897369837997735</v>
+        <v>-0.02869190909843197</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07583968135248279</v>
       </c>
       <c r="E97" t="n">
-        <v>1.286004014216033</v>
+        <v>1.280749301136853</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3637850782668263</v>
+        <v>0.3632682212426446</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04975018271360813</v>
+        <v>-0.04926982689169918</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08662326078359159</v>
       </c>
       <c r="E98" t="n">
-        <v>1.152361432310887</v>
+        <v>1.147779801401616</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3826503596494576</v>
+        <v>0.3825028947922758</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08709967292714356</v>
+        <v>-0.0865682154220528</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.09164071227000656</v>
       </c>
       <c r="E99" t="n">
-        <v>0.997343746354838</v>
+        <v>0.9938337907442935</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3777212372945498</v>
+        <v>0.3774963898885499</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1275415449972236</v>
+        <v>-0.1268918235967692</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09473315249878689</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8879730039129583</v>
+        <v>0.8854237599462317</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3467083557955581</v>
+        <v>0.346693755314649</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1421434859544015</v>
+        <v>-0.1413083384464017</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.09792155760090702</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7464987240481781</v>
+        <v>0.7448605500901785</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3473668374845579</v>
+        <v>0.3477741909019215</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1344869937656763</v>
+        <v>-0.1337978510667674</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.107204067153243</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6337976119109356</v>
+        <v>0.6314133533784817</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3048473169811148</v>
+        <v>0.3052400699175692</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1946161542935692</v>
+        <v>-0.1946906167462056</v>
       </c>
     </row>
   </sheetData>
